--- a/Basico/practice-files/Sesión 05/Gráfico combinado.xlsx
+++ b/Basico/practice-files/Sesión 05/Gráfico combinado.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Rodriguez\Desktop\EXCEL 2016\_MANUAL CALCULANDO EXCEL\Archivos\Capítulo 6\0) GRAFICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Basico\practice-files\Sesión 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F229159-3451-4D48-8620-F7CB4E3AE53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="14115" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,11 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,7 +97,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,24 +144,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
-    <cellStyle name="Millares 2" xfId="1"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Millares 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -152,10 +448,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6004317D-F3E5-45CA-A40A-1DD6193A7DEF}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4" headerRowCellStyle="Good">
+  <autoFilter ref="A1:C7" xr:uid="{6004317D-F3E5-45CA-A40A-1DD6193A7DEF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9DCBAA43-3664-4192-9D69-8343F9025AE8}" name="Departamento" dataDxfId="3" dataCellStyle="Good"/>
+    <tableColumn id="2" xr3:uid="{7DB12ADD-FAB2-48FE-8EDC-B49D87517D3D}" name="Ingresos" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{FE2B9A84-C649-4BE9-9D4D-18C20F3ABD2F}" name="Egresos" dataDxfId="0" dataCellStyle="Good">
+      <calculatedColumnFormula>B2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +503,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,95 +748,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>246666</v>
       </c>
-      <c r="C2" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3">
+        <f>B2</f>
+        <v>246666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>235874</v>
       </c>
-      <c r="C3" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">B3</f>
+        <v>235874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>356666</v>
       </c>
-      <c r="C4" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>356666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>36000</v>
       </c>
-      <c r="C5" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>25000</v>
       </c>
-      <c r="C6" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>25981</v>
       </c>
-      <c r="C7" s="2">
-        <v>22000</v>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>25981</v>
+      </c>
+      <c r="E7">
+        <v>1145.8</v>
+      </c>
+      <c r="F7">
+        <f>E7+(E7*H5)</f>
+        <v>1165.2785999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>E7*0.017</f>
+        <v>19.4786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>E7*(1+H5)</f>
+        <v>1165.2785999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>E7* (1 + 0.017)</f>
+        <v>1165.2785999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>